--- a/tmp/params_pac.xlsx
+++ b/tmp/params_pac.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -52,16 +52,64 @@
     <t xml:space="preserve">pac</t>
   </si>
   <si>
-    <t xml:space="preserve">27.02.2020</t>
+    <t xml:space="preserve">Comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.02.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Début épidémie dans le canton de VD</t>
   </si>
   <si>
     <t xml:space="preserve">13.03.2020</t>
   </si>
   <si>
-    <t xml:space="preserve">18.03.2020</t>
+    <t xml:space="preserve">16.03.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Situation extraordinaire selon conseil fédéral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.03.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.03.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.03.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.03.2020</t>
   </si>
   <si>
     <t xml:space="preserve">23.03.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.03.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Début de l’effet du confinement (lam 1.16 → 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05.04.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.04.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.04.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.04.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.04.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.05.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fin supposée de l’épidémie (lam=1)</t>
   </si>
 </sst>
 </file>
@@ -71,7 +119,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -92,6 +140,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,8 +191,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -158,13 +217,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.01"/>
@@ -172,8 +231,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="4.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="42.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -207,66 +269,72 @@
       <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0.05</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0.05</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>1</v>
@@ -274,66 +342,427 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0.05</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.15</v>
+        <v>0.6</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>0.01</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="0" t="n">
         <v>1.12</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1</v>
+      <c r="C10" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
